--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H2">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>464.0042296029187</v>
+        <v>1.122903766036445</v>
       </c>
       <c r="R2">
-        <v>4176.038066426268</v>
+        <v>10.106133894328</v>
       </c>
       <c r="S2">
-        <v>0.02228850250295022</v>
+        <v>0.000115320694224389</v>
       </c>
       <c r="T2">
-        <v>0.02228850250295022</v>
+        <v>0.000115320694224389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H3">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>2.816252347990222</v>
+        <v>6.706958217452446</v>
       </c>
       <c r="R3">
-        <v>25.346271131912</v>
+        <v>60.36262395707201</v>
       </c>
       <c r="S3">
-        <v>0.0001352790416605389</v>
+        <v>0.0006887955149537576</v>
       </c>
       <c r="T3">
-        <v>0.0001352790416605389</v>
+        <v>0.0006887955149537577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H4">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>0.154593506124</v>
+        <v>0.1423664042</v>
       </c>
       <c r="R4">
-        <v>1.391341555116</v>
+        <v>1.2812976378</v>
       </c>
       <c r="S4">
-        <v>7.42591883512208E-06</v>
+        <v>1.462083667643619E-05</v>
       </c>
       <c r="T4">
-        <v>7.42591883512208E-06</v>
+        <v>1.462083667643619E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H5">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>775.9845719572679</v>
+        <v>1011.793541617928</v>
       </c>
       <c r="R5">
-        <v>6983.861147615411</v>
+        <v>9106.141874561354</v>
       </c>
       <c r="S5">
-        <v>0.03727451814204653</v>
+        <v>0.103909824831192</v>
       </c>
       <c r="T5">
-        <v>0.03727451814204653</v>
+        <v>0.103909824831192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>1883.443041890112</v>
+        <v>1.913899178675778</v>
       </c>
       <c r="R6">
-        <v>16950.987377011</v>
+        <v>17.225092608082</v>
       </c>
       <c r="S6">
-        <v>0.09047142736016961</v>
+        <v>0.000196554850590122</v>
       </c>
       <c r="T6">
-        <v>0.09047142736016961</v>
+        <v>0.000196554850590122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
         <v>11.43147098802978</v>
@@ -883,10 +883,10 @@
         <v>102.883238892268</v>
       </c>
       <c r="S7">
-        <v>0.000549112170695398</v>
+        <v>0.001173996570515349</v>
       </c>
       <c r="T7">
-        <v>0.000549112170695398</v>
+        <v>0.001173996570515349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>0.6275116579860002</v>
+        <v>0.24265208855</v>
       </c>
       <c r="R8">
-        <v>5.647604921874001</v>
+        <v>2.18386879695</v>
       </c>
       <c r="S8">
-        <v>3.014260273364419E-05</v>
+        <v>2.492004048161302E-05</v>
       </c>
       <c r="T8">
-        <v>3.014260273364419E-05</v>
+        <v>2.492004048161302E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>3149.804785007502</v>
+        <v>1724.520735313982</v>
       </c>
       <c r="R9">
-        <v>28348.24306506752</v>
+        <v>15520.68661782584</v>
       </c>
       <c r="S9">
-        <v>0.1513012756252743</v>
+        <v>0.1771059412354911</v>
       </c>
       <c r="T9">
-        <v>0.1513012756252743</v>
+        <v>0.1771059412354911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H10">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N10">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q10">
-        <v>4721.977276770378</v>
+        <v>5.418259425082556</v>
       </c>
       <c r="R10">
-        <v>42497.79549093341</v>
+        <v>48.764334825743</v>
       </c>
       <c r="S10">
-        <v>0.2268207823067409</v>
+        <v>0.0005564478963267451</v>
       </c>
       <c r="T10">
-        <v>0.2268207823067409</v>
+        <v>0.000556447896326745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H11">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.155386</v>
       </c>
       <c r="O11">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P11">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q11">
-        <v>28.65982408014111</v>
+        <v>32.36255917425355</v>
       </c>
       <c r="R11">
-        <v>257.93841672127</v>
+        <v>291.263032568282</v>
       </c>
       <c r="S11">
-        <v>0.001376678314529571</v>
+        <v>0.003323590946734488</v>
       </c>
       <c r="T11">
-        <v>0.001376678314529571</v>
+        <v>0.003323590946734489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H12">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q12">
-        <v>1.573233553665</v>
+        <v>0.686949438325</v>
       </c>
       <c r="R12">
-        <v>14.159101982985</v>
+        <v>6.182544944925001</v>
       </c>
       <c r="S12">
-        <v>7.557047492561705E-05</v>
+        <v>7.054877587980408E-05</v>
       </c>
       <c r="T12">
-        <v>7.557047492561705E-05</v>
+        <v>7.054877587980408E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H13">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N13">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q13">
-        <v>7896.870938099654</v>
+        <v>4882.127978303593</v>
       </c>
       <c r="R13">
-        <v>71071.83844289689</v>
+        <v>43939.15180473234</v>
       </c>
       <c r="S13">
-        <v>0.379327205314341</v>
+        <v>0.5013879236842904</v>
       </c>
       <c r="T13">
-        <v>0.379327205314341</v>
+        <v>0.5013879236842904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H14">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I14">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J14">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N14">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q14">
-        <v>702.0952665838673</v>
+        <v>2.266977023382</v>
       </c>
       <c r="R14">
-        <v>6318.857399254806</v>
+        <v>20.402793210438</v>
       </c>
       <c r="S14">
-        <v>0.03372523590993057</v>
+        <v>0.0002328154665024664</v>
       </c>
       <c r="T14">
-        <v>0.03372523590993058</v>
+        <v>0.0002328154665024663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H15">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I15">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J15">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.155386</v>
       </c>
       <c r="O15">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P15">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q15">
-        <v>4.261334955333777</v>
+        <v>13.540359054468</v>
       </c>
       <c r="R15">
-        <v>38.352014598004</v>
+        <v>121.863231490212</v>
       </c>
       <c r="S15">
-        <v>0.0002046937694924596</v>
+        <v>0.001390576515492835</v>
       </c>
       <c r="T15">
-        <v>0.0002046937694924597</v>
+        <v>0.001390576515492835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H16">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I16">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J16">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N16">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q16">
-        <v>0.233918921358</v>
+        <v>0.28741676445</v>
       </c>
       <c r="R16">
-        <v>2.105270292222</v>
+        <v>2.58675088005</v>
       </c>
       <c r="S16">
-        <v>1.123632529952784E-05</v>
+        <v>2.951731200002578E-05</v>
       </c>
       <c r="T16">
-        <v>1.123632529952784E-05</v>
+        <v>2.951731200002578E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H17">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I17">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J17">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N17">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q17">
-        <v>1174.159760094306</v>
+        <v>2042.661874178538</v>
       </c>
       <c r="R17">
-        <v>10567.43784084875</v>
+        <v>18383.95686760684</v>
       </c>
       <c r="S17">
-        <v>0.05640091422037491</v>
+        <v>0.2097786048286486</v>
       </c>
       <c r="T17">
-        <v>0.05640091422037492</v>
+        <v>0.2097786048286486</v>
       </c>
     </row>
   </sheetData>
